--- a/license.xlsx
+++ b/license.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,32 +356,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t xml:space="preserve">NAYAR SRISHTI </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DL9CAC6215 </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>12/2012</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D13A0338461 </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t xml:space="preserve">HITESH NAGAR </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DL5CJ </t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DL5CJ 5387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>09/O6/2013</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>05/2013</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">D13A0393711 </t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>9.json</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA3FHEB1S00452564 </t>
         </is>
       </c>
     </row>

--- a/license.xlsx
+++ b/license.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,52 +356,30 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">NAYAR SRISHTI </t>
+          <t xml:space="preserve">HITESH NAGAR </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">DL9CAC6215 </t>
+          <t>DL5CJ 5387</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>09/O6/2013</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>12/2012</t>
+          <t>05/2013</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">D13A0338461 </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HITESH NAGAR </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DL5CJ 5387</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>09/O6/2013</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>05/2013</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t xml:space="preserve">D13A0393711 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t xml:space="preserve">MA3FHEB1S00452564 </t>
         </is>
